--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthority.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthority.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TranNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>交易代號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -204,6 +200,10 @@
   </si>
   <si>
     <t>TxAuthority</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +775,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -795,10 +795,10 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="15"/>
@@ -879,22 +879,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -902,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -922,16 +922,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="23"/>
@@ -942,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>15</v>
@@ -955,7 +955,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1072,24 +1072,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthority.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthority.xlsx
@@ -163,10 +163,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.無權限1.僅查詢權限2.全部權限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>權限檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -204,6 +200,10 @@
   </si>
   <si>
     <t>TranNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.無權限1.僅查詢權限2.全部權限</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +775,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -795,10 +795,10 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="15"/>
@@ -902,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>26</v>
@@ -955,7 +955,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
